--- a/data/trans_orig/P14B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA15490-D825-4049-852C-035DCF40C284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC1E844-CCE2-42A5-B52F-FFFA5E802C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CE6D7ED-F9FD-4107-A519-8C0BEFF835A0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2902E350-6B16-4292-A7A2-E05BFE89D4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="273">
   <si>
     <t>Población cuyo cáncer le limita en 2012 (Tasa respuesta: 1,49%)</t>
   </si>
@@ -106,49 +106,49 @@
     <t>39,18%</t>
   </si>
   <si>
-    <t>82,16%</t>
+    <t>81,7%</t>
   </si>
   <si>
     <t>56,34%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>50,25%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>17,84%</t>
+    <t>18,3%</t>
   </si>
   <si>
     <t>43,66%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>49,75%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -157,205 +157,211 @@
     <t>81,36%</t>
   </si>
   <si>
-    <t>21,22%</t>
+    <t>21,33%</t>
   </si>
   <si>
     <t>68,78%</t>
   </si>
   <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>71,62%</t>
   </si>
   <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>46,13%</t>
   </si>
   <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -619,16 +625,16 @@
     <t>72,38%</t>
   </si>
   <si>
-    <t>28,65%</t>
+    <t>25,59%</t>
   </si>
   <si>
     <t>49,03%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -637,220 +643,220 @@
     <t>27,62%</t>
   </si>
   <si>
-    <t>71,35%</t>
+    <t>74,41%</t>
   </si>
   <si>
     <t>50,97%</t>
   </si>
   <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>63,77%</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>58,93%</t>
   </si>
   <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
   </si>
   <si>
     <t>60,55%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
   </si>
   <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
   </si>
   <si>
     <t>41,07%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
   </si>
   <si>
     <t>49,8%</t>
   </si>
   <si>
-    <t>71,37%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
   </si>
   <si>
     <t>43,74%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
   </si>
   <si>
     <t>50,2%</t>
   </si>
   <si>
-    <t>28,63%</t>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>56,26%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
   </si>
   <si>
     <t>47,31%</t>
   </si>
   <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
   </si>
   <si>
     <t>43,37%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
   </si>
   <si>
     <t>60,8%</t>
   </si>
   <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
   </si>
   <si>
     <t>52,69%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
   </si>
   <si>
     <t>56,63%</t>
   </si>
   <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
   </si>
   <si>
     <t>43,24%</t>
   </si>
   <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>56,76%</t>
   </si>
   <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
   </si>
   <si>
     <t>48,6%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE4C98-94F0-4F3A-A8B2-13813A8DE324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7DB6AE-BFB4-492D-982A-9FE26701D042}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2307,13 +2313,13 @@
         <v>36728</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -2322,13 +2328,13 @@
         <v>57623</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2349,13 @@
         <v>18270</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -2358,13 +2364,13 @@
         <v>31066</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -2373,13 +2379,13 @@
         <v>49336</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2441,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E978C1-2F4B-485F-BB7E-C56ABA234B7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A724D84C-1676-4B7C-BD9A-0DCC232C1023}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2474,7 +2480,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2737,7 +2743,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2752,7 +2758,7 @@
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2789,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2798,7 +2804,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2873,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2882,13 +2888,13 @@
         <v>4232</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2897,13 +2903,13 @@
         <v>4232</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,7 +2927,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2933,13 +2939,13 @@
         <v>5405</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2948,13 +2954,13 @@
         <v>6421</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,10 +3028,10 @@
         <v>5326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>17</v>
@@ -3037,13 +3043,13 @@
         <v>10589</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3052,13 +3058,13 @@
         <v>15914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3079,13 @@
         <v>1037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3088,13 +3094,13 @@
         <v>3271</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3103,13 +3109,13 @@
         <v>4308</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3183,13 @@
         <v>2004</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3192,13 +3198,13 @@
         <v>9970</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3207,13 +3213,13 @@
         <v>11974</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,10 +3234,10 @@
         <v>2998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3243,13 +3249,13 @@
         <v>3367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -3258,13 +3264,13 @@
         <v>6365</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3338,13 @@
         <v>8829</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -3347,13 +3353,13 @@
         <v>18447</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -3362,13 +3368,13 @@
         <v>27276</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3389,13 @@
         <v>8524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -3398,13 +3404,13 @@
         <v>14894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -3413,13 +3419,13 @@
         <v>23418</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3493,13 @@
         <v>16158</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -3502,13 +3508,13 @@
         <v>43237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -3517,13 +3523,13 @@
         <v>59395</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3544,13 @@
         <v>13576</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -3553,13 +3559,13 @@
         <v>27913</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -3568,13 +3574,13 @@
         <v>41489</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,7 +3636,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3652,7 +3658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B820FA9-6F91-485D-8BC9-1D71030B0F76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4282375-40F1-477D-9854-2D080BE41858}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3669,7 +3675,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3919,7 +3925,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3931,7 +3937,7 @@
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>19</v>
@@ -3943,7 +3949,7 @@
         <v>1139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
@@ -3967,7 +3973,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3985,7 +3991,7 @@
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3994,7 +4000,7 @@
         <v>1942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>14</v>
@@ -4074,7 +4080,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4083,10 +4089,10 @@
         <v>3947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>17</v>
@@ -4098,13 +4104,13 @@
         <v>3947</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,7 +4128,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4134,13 +4140,13 @@
         <v>1507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4149,13 +4155,13 @@
         <v>4104</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4229,13 @@
         <v>6301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4238,13 +4244,13 @@
         <v>11549</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4253,13 +4259,13 @@
         <v>17850</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4280,13 @@
         <v>3579</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -4289,13 +4295,13 @@
         <v>8050</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -4304,7 +4310,7 @@
         <v>11629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>219</v>
@@ -4381,10 +4387,10 @@
         <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -4393,13 +4399,13 @@
         <v>8828</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -4408,13 +4414,13 @@
         <v>19817</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4435,13 @@
         <v>11078</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4444,13 +4450,13 @@
         <v>11354</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -4459,13 +4465,13 @@
         <v>22431</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4539,13 @@
         <v>14697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -4548,13 +4554,13 @@
         <v>18783</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -4563,13 +4569,13 @@
         <v>33480</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4590,13 @@
         <v>22791</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -4599,13 +4605,13 @@
         <v>20922</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -4614,13 +4620,13 @@
         <v>43714</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4694,13 @@
         <v>31987</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -4703,13 +4709,13 @@
         <v>44246</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M22" s="7">
         <v>114</v>
@@ -4718,13 +4724,13 @@
         <v>76233</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4745,13 @@
         <v>41988</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>74</v>
@@ -4754,13 +4760,13 @@
         <v>41832</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>129</v>
@@ -4769,13 +4775,13 @@
         <v>83820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,7 +4837,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B01-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC1E844-CCE2-42A5-B52F-FFFA5E802C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5FBCD19-43DE-4384-BB82-7CDF3D838D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2902E350-6B16-4292-A7A2-E05BFE89D4EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C6D7B1D-13C3-48E2-BDAB-870701767BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -106,643 +106,643 @@
     <t>39,18%</t>
   </si>
   <si>
-    <t>81,7%</t>
+    <t>81,81%</t>
   </si>
   <si>
     <t>56,34%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>50,25%</t>
   </si>
   <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo cáncer le limita en 2016 (Tasa respuesta: 1,43%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo cáncer le limita en 2015 (Tasa respuesta: 1,43%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>78,7%</t>
   </si>
   <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
   </si>
   <si>
     <t>21,3%</t>
   </si>
   <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>Población cuyo cáncer le limita en 2023 (Tasa respuesta: 2,78%)</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
   </si>
   <si>
     <t>46,91%</t>
   </si>
   <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
   </si>
   <si>
     <t>53,09%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>Población cuyo cáncer le limita en 2023 (Tasa respuesta: 2,78%)</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
   </si>
   <si>
     <t>39,28%</t>
@@ -1268,7 +1268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7DB6AE-BFB4-492D-982A-9FE26701D042}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F8644A-F9FC-4DE1-AED5-BE60ED32B8D2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2310,7 +2310,7 @@
         <v>32</v>
       </c>
       <c r="I22" s="7">
-        <v>36728</v>
+        <v>36727</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>93</v>
@@ -2412,7 +2412,7 @@
         <v>61</v>
       </c>
       <c r="I24" s="7">
-        <v>67794</v>
+        <v>67793</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -2463,7 +2463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A724D84C-1676-4B7C-BD9A-0DCC232C1023}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DB458B-CC7F-459F-BC05-D883F9C1B957}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3058,13 +3058,13 @@
         <v>15914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3079,13 @@
         <v>1037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3094,13 +3094,13 @@
         <v>3271</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3109,13 +3109,13 @@
         <v>4308</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3183,13 @@
         <v>2004</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3198,13 +3198,13 @@
         <v>9970</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3213,13 +3213,13 @@
         <v>11974</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,10 +3234,10 @@
         <v>2998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3249,10 +3249,10 @@
         <v>3367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>150</v>
@@ -3514,22 +3514,22 @@
         <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
       </c>
       <c r="N22" s="7">
-        <v>59395</v>
+        <v>59396</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3544,13 @@
         <v>13576</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -3559,13 +3559,13 @@
         <v>27913</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -3574,13 +3574,13 @@
         <v>41489</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3622,7 @@
         <v>94</v>
       </c>
       <c r="N24" s="7">
-        <v>100884</v>
+        <v>100885</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3658,7 +3658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4282375-40F1-477D-9854-2D080BE41858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C39DB2-1D22-4C70-ACDB-E0F06DC58AA6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3675,7 +3675,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3949,7 +3949,7 @@
         <v>1139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
@@ -4000,7 +4000,7 @@
         <v>1942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>14</v>
@@ -4080,7 +4080,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4089,10 +4089,10 @@
         <v>3947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>17</v>
@@ -4104,13 +4104,13 @@
         <v>3947</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4128,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4140,13 +4140,13 @@
         <v>1507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4155,13 +4155,13 @@
         <v>4104</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4229,13 @@
         <v>6301</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4244,13 +4244,13 @@
         <v>11549</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4259,13 +4259,13 @@
         <v>17850</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4280,13 @@
         <v>3579</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -4295,13 +4295,13 @@
         <v>8050</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -4310,13 +4310,13 @@
         <v>11629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4384,13 @@
         <v>10989</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -4399,13 +4399,13 @@
         <v>8828</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -4414,13 +4414,13 @@
         <v>19817</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4435,13 @@
         <v>11078</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4450,13 +4450,13 @@
         <v>11354</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -4465,7 +4465,7 @@
         <v>22431</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>235</v>
